--- a/Table/Table_xls/s世界地图配置.xlsx
+++ b/Table/Table_xls/s世界地图配置.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20506" windowHeight="10520"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$66</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1707,10 +1707,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1743,11 +1743,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1759,46 +1758,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1811,17 +1772,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1834,14 +1786,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1864,8 +1816,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1879,14 +1863,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1937,13 +1937,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1955,79 +2099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2039,91 +2117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2137,11 +2137,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2161,21 +2221,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2183,30 +2228,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2220,32 +2241,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2257,10 +2257,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2269,142 +2269,142 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2896,29 +2896,29 @@
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A60" sqref="$A60:$XFD66"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.65"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="15.5752212389381" customWidth="1"/>
-    <col min="3" max="3" width="22.5752212389381" customWidth="1"/>
-    <col min="4" max="4" width="26.141592920354" customWidth="1"/>
-    <col min="5" max="6" width="12.283185840708" customWidth="1"/>
-    <col min="8" max="8" width="16.858407079646" customWidth="1"/>
-    <col min="11" max="11" width="32.141592920354" customWidth="1"/>
-    <col min="12" max="12" width="13.4247787610619" customWidth="1"/>
-    <col min="13" max="13" width="31.283185840708" customWidth="1"/>
-    <col min="14" max="15" width="9.14159292035398" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5752212389381" customWidth="1"/>
-    <col min="17" max="17" width="48.716814159292" customWidth="1"/>
+    <col min="2" max="2" width="15.5740740740741" customWidth="1"/>
+    <col min="3" max="3" width="22.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="26.1388888888889" customWidth="1"/>
+    <col min="5" max="6" width="12.287037037037" customWidth="1"/>
+    <col min="8" max="8" width="16.8611111111111" customWidth="1"/>
+    <col min="11" max="11" width="32.1388888888889" customWidth="1"/>
+    <col min="12" max="12" width="13.4259259259259" customWidth="1"/>
+    <col min="13" max="13" width="31.287037037037" customWidth="1"/>
+    <col min="14" max="15" width="9.13888888888889" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5740740740741" customWidth="1"/>
+    <col min="17" max="17" width="48.712962962963" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="44.4247787610619" customWidth="1"/>
-    <col min="21" max="21" width="40.141592920354" customWidth="1"/>
+    <col min="19" max="19" width="44.4259259259259" customWidth="1"/>
+    <col min="21" max="21" width="40.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -6386,7 +6386,7 @@
       <c r="S55" s="35"/>
       <c r="T55" s="36"/>
     </row>
-    <row r="56" customFormat="1" ht="14.3" spans="1:20">
+    <row r="56" customFormat="1" ht="14.4" spans="1:20">
       <c r="A56" s="20">
         <v>2205</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="14.3" spans="1:20">
+    <row r="57" customFormat="1" ht="14.4" spans="1:20">
       <c r="A57" s="20">
         <v>2206</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="14.3" spans="1:20">
+    <row r="58" customFormat="1" ht="14.4" spans="1:20">
       <c r="A58" s="20">
         <v>2207</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" customFormat="1" ht="14.3" spans="1:20">
+    <row r="59" customFormat="1" ht="14.4" spans="1:20">
       <c r="A59" s="20">
         <v>2208</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" customFormat="1" ht="14.3" spans="1:20">
+    <row r="60" customFormat="1" ht="14.4" spans="1:20">
       <c r="A60" s="20">
         <v>2210</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" customFormat="1" ht="14.3" spans="1:20">
+    <row r="61" customFormat="1" ht="14.4" spans="1:20">
       <c r="A61" s="20">
         <v>2211</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" customFormat="1" ht="14.3" spans="1:20">
+    <row r="62" customFormat="1" ht="14.4" spans="1:20">
       <c r="A62" s="20">
         <v>2212</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" customFormat="1" ht="14.3" spans="1:20">
+    <row r="63" customFormat="1" ht="14.4" spans="1:20">
       <c r="A63" s="20">
         <v>2213</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" customFormat="1" ht="14.3" spans="1:20">
+    <row r="64" customFormat="1" ht="14.4" spans="1:20">
       <c r="A64" s="20">
         <v>2214</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="65" customFormat="1" ht="14.3" spans="1:20">
+    <row r="65" customFormat="1" ht="14.4" spans="1:20">
       <c r="A65" s="20">
         <v>2215</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" customFormat="1" ht="14.3" spans="1:20">
+    <row r="66" customFormat="1" ht="14.4" spans="1:20">
       <c r="A66" s="20">
         <v>2216</v>
       </c>
@@ -7047,7 +7047,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T59">
+  <autoFilter ref="A1:T66">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7065,7 +7065,7 @@
       <selection activeCell="E23" sqref="A23:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.65" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1">
